--- a/hw01_results.xlsx
+++ b/hw01_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cccdenhart/Documents/courses/ds4300/hw01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7CD319-7ECA-5242-B3B0-F1453FA98FA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D9AE86-6557-1B4A-AFA9-F39D0DEE38E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{32C25443-D7BF-4C4D-B4E6-95DF0EE06889}"/>
   </bookViews>
@@ -30,15 +30,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Insertion Time</t>
   </si>
   <si>
-    <t>215627 milliseconds</t>
-  </si>
-  <si>
     <t>Home Timeline Time</t>
+  </si>
+  <si>
+    <t>CPU speed</t>
+  </si>
+  <si>
+    <t>Number of cores</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk </t>
+  </si>
+  <si>
+    <t>2.3 GHz</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>500GB SSD</t>
   </si>
 </sst>
 </file>
@@ -390,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B27C41-2010-FD40-B0A6-3B7172AF4809}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,12 +425,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>215627</v>
+      </c>
+      <c r="B2">
+        <v>181466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
